--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fgf2-Sdc3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fgf2-Sdc3.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.005243333333333</v>
+        <v>0.7321483333333333</v>
       </c>
       <c r="H2">
-        <v>3.01573</v>
+        <v>2.196445</v>
       </c>
       <c r="I2">
-        <v>0.07224874268505826</v>
+        <v>0.05113520435363902</v>
       </c>
       <c r="J2">
-        <v>0.07224874268505825</v>
+        <v>0.05113520435363902</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>34.36078833333333</v>
+        <v>28.31444233333334</v>
       </c>
       <c r="N2">
-        <v>103.082365</v>
+        <v>84.94332700000001</v>
       </c>
       <c r="O2">
-        <v>0.28490270239021</v>
+        <v>0.2747173016130739</v>
       </c>
       <c r="P2">
-        <v>0.28490270239021</v>
+        <v>0.2747173016130739</v>
       </c>
       <c r="Q2">
-        <v>34.54095340016111</v>
+        <v>20.73037176361278</v>
       </c>
       <c r="R2">
-        <v>310.8685806014499</v>
+        <v>186.573345872515</v>
       </c>
       <c r="S2">
-        <v>0.02058386203526802</v>
+        <v>0.01404772535746482</v>
       </c>
       <c r="T2">
-        <v>0.02058386203526802</v>
+        <v>0.01404772535746482</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.005243333333333</v>
+        <v>0.7321483333333333</v>
       </c>
       <c r="H3">
-        <v>3.01573</v>
+        <v>2.196445</v>
       </c>
       <c r="I3">
-        <v>0.07224874268505826</v>
+        <v>0.05113520435363902</v>
       </c>
       <c r="J3">
-        <v>0.07224874268505825</v>
+        <v>0.05113520435363902</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>64.633847</v>
       </c>
       <c r="O3">
-        <v>0.17863732245739</v>
+        <v>0.2090339131726295</v>
       </c>
       <c r="P3">
-        <v>0.17863732245739</v>
+        <v>0.2090339131726295</v>
       </c>
       <c r="Q3">
-        <v>21.65758126814556</v>
+        <v>15.77385445265722</v>
       </c>
       <c r="R3">
-        <v>194.91823141331</v>
+        <v>141.964690073915</v>
       </c>
       <c r="S3">
-        <v>0.01290632194417175</v>
+        <v>0.01068899186692325</v>
       </c>
       <c r="T3">
-        <v>0.01290632194417175</v>
+        <v>0.01068899186692325</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.005243333333333</v>
+        <v>0.7321483333333333</v>
       </c>
       <c r="H4">
-        <v>3.01573</v>
+        <v>2.196445</v>
       </c>
       <c r="I4">
-        <v>0.07224874268505826</v>
+        <v>0.05113520435363902</v>
       </c>
       <c r="J4">
-        <v>0.07224874268505825</v>
+        <v>0.05113520435363902</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.668551</v>
+        <v>5.413469333333334</v>
       </c>
       <c r="N4">
-        <v>14.005653</v>
+        <v>16.240408</v>
       </c>
       <c r="O4">
-        <v>0.03870932131252083</v>
+        <v>0.0525235026743817</v>
       </c>
       <c r="P4">
-        <v>0.03870932131252085</v>
+        <v>0.0525235026743817</v>
       </c>
       <c r="Q4">
-        <v>4.693029769076666</v>
+        <v>3.963462549951112</v>
       </c>
       <c r="R4">
-        <v>42.23726792169</v>
+        <v>35.67116294956</v>
       </c>
       <c r="S4">
-        <v>0.00279669979502156</v>
+        <v>0.002685800042623414</v>
       </c>
       <c r="T4">
-        <v>0.00279669979502156</v>
+        <v>0.002685800042623414</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.005243333333333</v>
+        <v>0.7321483333333333</v>
       </c>
       <c r="H5">
-        <v>3.01573</v>
+        <v>2.196445</v>
       </c>
       <c r="I5">
-        <v>0.07224874268505826</v>
+        <v>0.05113520435363902</v>
       </c>
       <c r="J5">
-        <v>0.07224874268505825</v>
+        <v>0.05113520435363902</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>60.03138866666666</v>
+        <v>47.79503400000001</v>
       </c>
       <c r="N5">
-        <v>180.094166</v>
+        <v>143.385102</v>
       </c>
       <c r="O5">
-        <v>0.4977506538398792</v>
+        <v>0.4637252825399149</v>
       </c>
       <c r="P5">
-        <v>0.4977506538398793</v>
+        <v>0.4637252825399149</v>
       </c>
       <c r="Q5">
-        <v>60.34615324790888</v>
+        <v>34.99305448471</v>
       </c>
       <c r="R5">
-        <v>543.1153792311799</v>
+        <v>314.93749036239</v>
       </c>
       <c r="S5">
-        <v>0.03596185891059694</v>
+        <v>0.02371268708662754</v>
       </c>
       <c r="T5">
-        <v>0.03596185891059694</v>
+        <v>0.02371268708662754</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>30.779518</v>
       </c>
       <c r="I6">
-        <v>0.7373940889775011</v>
+        <v>0.7165747117895102</v>
       </c>
       <c r="J6">
-        <v>0.737394088977501</v>
+        <v>0.7165747117895102</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>34.36078833333333</v>
+        <v>28.31444233333334</v>
       </c>
       <c r="N6">
-        <v>103.082365</v>
+        <v>84.94332700000001</v>
       </c>
       <c r="O6">
-        <v>0.28490270239021</v>
+        <v>0.2747173016130739</v>
       </c>
       <c r="P6">
-        <v>0.28490270239021</v>
+        <v>0.2747173016130739</v>
       </c>
       <c r="Q6">
-        <v>352.5361676666744</v>
+        <v>290.5016291529318</v>
       </c>
       <c r="R6">
-        <v>3172.82550900007</v>
+        <v>2614.514662376386</v>
       </c>
       <c r="S6">
-        <v>0.210085568676257</v>
+        <v>0.1968554712269804</v>
       </c>
       <c r="T6">
-        <v>0.210085568676257</v>
+        <v>0.1968554712269804</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>30.779518</v>
       </c>
       <c r="I7">
-        <v>0.7373940889775011</v>
+        <v>0.7165747117895102</v>
       </c>
       <c r="J7">
-        <v>0.737394088977501</v>
+        <v>0.7165747117895102</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>64.633847</v>
       </c>
       <c r="O7">
-        <v>0.17863732245739</v>
+        <v>0.2090339131726295</v>
       </c>
       <c r="P7">
-        <v>0.17863732245739</v>
+        <v>0.2090339131726295</v>
       </c>
       <c r="Q7">
         <v>221.0442952384163</v>
@@ -883,10 +883,10 @@
         <v>1989.398657145746</v>
       </c>
       <c r="S7">
-        <v>0.1317261056508472</v>
+        <v>0.1497884160859105</v>
       </c>
       <c r="T7">
-        <v>0.1317261056508472</v>
+        <v>0.1497884160859105</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>30.779518</v>
       </c>
       <c r="I8">
-        <v>0.7373940889775011</v>
+        <v>0.7165747117895102</v>
       </c>
       <c r="J8">
-        <v>0.737394088977501</v>
+        <v>0.7165747117895102</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.668551</v>
+        <v>5.413469333333334</v>
       </c>
       <c r="N8">
-        <v>14.005653</v>
+        <v>16.240408</v>
       </c>
       <c r="O8">
-        <v>0.03870932131252083</v>
+        <v>0.0525235026743817</v>
       </c>
       <c r="P8">
-        <v>0.03870932131252085</v>
+        <v>0.0525235026743817</v>
       </c>
       <c r="Q8">
-        <v>47.89858317947267</v>
+        <v>55.54132559592713</v>
       </c>
       <c r="R8">
-        <v>431.087248615254</v>
+        <v>499.8719303633441</v>
       </c>
       <c r="S8">
-        <v>0.02854402472418367</v>
+        <v>0.03763701379107064</v>
       </c>
       <c r="T8">
-        <v>0.02854402472418368</v>
+        <v>0.03763701379107064</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>30.779518</v>
       </c>
       <c r="I9">
-        <v>0.7373940889775011</v>
+        <v>0.7165747117895102</v>
       </c>
       <c r="J9">
-        <v>0.737394088977501</v>
+        <v>0.7165747117895102</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>60.03138866666666</v>
+        <v>47.79503400000001</v>
       </c>
       <c r="N9">
-        <v>180.094166</v>
+        <v>143.385102</v>
       </c>
       <c r="O9">
-        <v>0.4977506538398792</v>
+        <v>0.4637252825399149</v>
       </c>
       <c r="P9">
-        <v>0.4977506538398793</v>
+        <v>0.4637252825399149</v>
       </c>
       <c r="Q9">
-        <v>615.9124026768876</v>
+        <v>490.3693697712041</v>
       </c>
       <c r="R9">
-        <v>5543.211624091988</v>
+        <v>4413.324327940836</v>
       </c>
       <c r="S9">
-        <v>0.3670383899262132</v>
+        <v>0.3322938106855486</v>
       </c>
       <c r="T9">
-        <v>0.3670383899262132</v>
+        <v>0.3322938106855486</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.264687</v>
+        <v>2.568000333333333</v>
       </c>
       <c r="H10">
-        <v>6.794061</v>
+        <v>7.704001</v>
       </c>
       <c r="I10">
-        <v>0.162767344880208</v>
+        <v>0.1793560346266988</v>
       </c>
       <c r="J10">
-        <v>0.162767344880208</v>
+        <v>0.1793560346266988</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>34.36078833333333</v>
+        <v>28.31444233333334</v>
       </c>
       <c r="N10">
-        <v>103.082365</v>
+        <v>84.94332700000001</v>
       </c>
       <c r="O10">
-        <v>0.28490270239021</v>
+        <v>0.2747173016130739</v>
       </c>
       <c r="P10">
-        <v>0.28490270239021</v>
+        <v>0.2747173016130739</v>
       </c>
       <c r="Q10">
-        <v>77.81643064825165</v>
+        <v>72.71149735014745</v>
       </c>
       <c r="R10">
-        <v>700.347875834265</v>
+        <v>654.403476151327</v>
       </c>
       <c r="S10">
-        <v>0.04637285641725056</v>
+        <v>0.04927220586066774</v>
       </c>
       <c r="T10">
-        <v>0.04637285641725058</v>
+        <v>0.04927220586066774</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.264687</v>
+        <v>2.568000333333333</v>
       </c>
       <c r="H11">
-        <v>6.794061</v>
+        <v>7.704001</v>
       </c>
       <c r="I11">
-        <v>0.162767344880208</v>
+        <v>0.1793560346266988</v>
       </c>
       <c r="J11">
-        <v>0.162767344880208</v>
+        <v>0.1793560346266988</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>64.633847</v>
       </c>
       <c r="O11">
-        <v>0.17863732245739</v>
+        <v>0.2090339131726295</v>
       </c>
       <c r="P11">
-        <v>0.17863732245739</v>
+        <v>0.2090339131726295</v>
       </c>
       <c r="Q11">
-        <v>48.79181102029634</v>
+        <v>55.32658021353856</v>
       </c>
       <c r="R11">
-        <v>439.126299182667</v>
+        <v>497.939221921847</v>
       </c>
       <c r="S11">
-        <v>0.02907632267289892</v>
+        <v>0.03749149376914448</v>
       </c>
       <c r="T11">
-        <v>0.02907632267289892</v>
+        <v>0.03749149376914448</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.264687</v>
+        <v>2.568000333333333</v>
       </c>
       <c r="H12">
-        <v>6.794061</v>
+        <v>7.704001</v>
       </c>
       <c r="I12">
-        <v>0.162767344880208</v>
+        <v>0.1793560346266988</v>
       </c>
       <c r="J12">
-        <v>0.162767344880208</v>
+        <v>0.1793560346266988</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.668551</v>
+        <v>5.413469333333334</v>
       </c>
       <c r="N12">
-        <v>14.005653</v>
+        <v>16.240408</v>
       </c>
       <c r="O12">
-        <v>0.03870932131252083</v>
+        <v>0.0525235026743817</v>
       </c>
       <c r="P12">
-        <v>0.03870932131252085</v>
+        <v>0.0525235026743817</v>
       </c>
       <c r="Q12">
-        <v>10.572806758537</v>
+        <v>13.90179105248978</v>
       </c>
       <c r="R12">
-        <v>95.155260826833</v>
+        <v>125.116119472408</v>
       </c>
       <c r="S12">
-        <v>0.006300613452153864</v>
+        <v>0.00942040716438191</v>
       </c>
       <c r="T12">
-        <v>0.006300613452153866</v>
+        <v>0.00942040716438191</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.264687</v>
+        <v>2.568000333333333</v>
       </c>
       <c r="H13">
-        <v>6.794061</v>
+        <v>7.704001</v>
       </c>
       <c r="I13">
-        <v>0.162767344880208</v>
+        <v>0.1793560346266988</v>
       </c>
       <c r="J13">
-        <v>0.162767344880208</v>
+        <v>0.1793560346266988</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>60.03138866666666</v>
+        <v>47.79503400000001</v>
       </c>
       <c r="N13">
-        <v>180.094166</v>
+        <v>143.385102</v>
       </c>
       <c r="O13">
-        <v>0.4977506538398792</v>
+        <v>0.4637252825399149</v>
       </c>
       <c r="P13">
-        <v>0.4977506538398793</v>
+        <v>0.4637252825399149</v>
       </c>
       <c r="Q13">
-        <v>135.9523055053473</v>
+        <v>122.737663243678</v>
       </c>
       <c r="R13">
-        <v>1223.570749548126</v>
+        <v>1104.638969193102</v>
       </c>
       <c r="S13">
-        <v>0.08101755233790464</v>
+        <v>0.08317192783250464</v>
       </c>
       <c r="T13">
-        <v>0.08101755233790466</v>
+        <v>0.08317192783250464</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.383875</v>
+        <v>0.7579039999999999</v>
       </c>
       <c r="H14">
-        <v>1.151625</v>
+        <v>2.273712</v>
       </c>
       <c r="I14">
-        <v>0.02758982345723265</v>
+        <v>0.05293404923015203</v>
       </c>
       <c r="J14">
-        <v>0.02758982345723265</v>
+        <v>0.05293404923015203</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>34.36078833333333</v>
+        <v>28.31444233333334</v>
       </c>
       <c r="N14">
-        <v>103.082365</v>
+        <v>84.94332700000001</v>
       </c>
       <c r="O14">
-        <v>0.28490270239021</v>
+        <v>0.2747173016130739</v>
       </c>
       <c r="P14">
-        <v>0.28490270239021</v>
+        <v>0.2747173016130739</v>
       </c>
       <c r="Q14">
-        <v>13.19024762145833</v>
+        <v>21.45962910220267</v>
       </c>
       <c r="R14">
-        <v>118.712228593125</v>
+        <v>193.136661919824</v>
       </c>
       <c r="S14">
-        <v>0.007860415261434389</v>
+        <v>0.01454189916796098</v>
       </c>
       <c r="T14">
-        <v>0.007860415261434391</v>
+        <v>0.01454189916796098</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.383875</v>
+        <v>0.7579039999999999</v>
       </c>
       <c r="H15">
-        <v>1.151625</v>
+        <v>2.273712</v>
       </c>
       <c r="I15">
-        <v>0.02758982345723265</v>
+        <v>0.05293404923015203</v>
       </c>
       <c r="J15">
-        <v>0.02758982345723265</v>
+        <v>0.05293404923015203</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>64.633847</v>
       </c>
       <c r="O15">
-        <v>0.17863732245739</v>
+        <v>0.2090339131726295</v>
       </c>
       <c r="P15">
-        <v>0.17863732245739</v>
+        <v>0.2090339131726295</v>
       </c>
       <c r="Q15">
-        <v>8.270439339041667</v>
+        <v>16.32875039222933</v>
       </c>
       <c r="R15">
-        <v>74.43395405137501</v>
+        <v>146.958753530064</v>
       </c>
       <c r="S15">
-        <v>0.004928572189472132</v>
+        <v>0.0110650114506513</v>
       </c>
       <c r="T15">
-        <v>0.004928572189472132</v>
+        <v>0.0110650114506513</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.383875</v>
+        <v>0.7579039999999999</v>
       </c>
       <c r="H16">
-        <v>1.151625</v>
+        <v>2.273712</v>
       </c>
       <c r="I16">
-        <v>0.02758982345723265</v>
+        <v>0.05293404923015203</v>
       </c>
       <c r="J16">
-        <v>0.02758982345723265</v>
+        <v>0.05293404923015203</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.668551</v>
+        <v>5.413469333333334</v>
       </c>
       <c r="N16">
-        <v>14.005653</v>
+        <v>16.240408</v>
       </c>
       <c r="O16">
-        <v>0.03870932131252083</v>
+        <v>0.0525235026743817</v>
       </c>
       <c r="P16">
-        <v>0.03870932131252085</v>
+        <v>0.0525235026743817</v>
       </c>
       <c r="Q16">
-        <v>1.792140015125</v>
+        <v>4.102890061610667</v>
       </c>
       <c r="R16">
-        <v>16.129260136125</v>
+        <v>36.926010554496</v>
       </c>
       <c r="S16">
-        <v>0.001067983341161743</v>
+        <v>0.002780281676305743</v>
       </c>
       <c r="T16">
-        <v>0.001067983341161744</v>
+        <v>0.002780281676305743</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.383875</v>
+        <v>0.7579039999999999</v>
       </c>
       <c r="H17">
-        <v>1.151625</v>
+        <v>2.273712</v>
       </c>
       <c r="I17">
-        <v>0.02758982345723265</v>
+        <v>0.05293404923015203</v>
       </c>
       <c r="J17">
-        <v>0.02758982345723265</v>
+        <v>0.05293404923015203</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>60.03138866666666</v>
+        <v>47.79503400000001</v>
       </c>
       <c r="N17">
-        <v>180.094166</v>
+        <v>143.385102</v>
       </c>
       <c r="O17">
-        <v>0.4977506538398792</v>
+        <v>0.4637252825399149</v>
       </c>
       <c r="P17">
-        <v>0.4977506538398793</v>
+        <v>0.4637252825399149</v>
       </c>
       <c r="Q17">
-        <v>23.04454932441667</v>
+        <v>36.224047448736</v>
       </c>
       <c r="R17">
-        <v>207.40094391975</v>
+        <v>326.016427038624</v>
       </c>
       <c r="S17">
-        <v>0.01373285266516439</v>
+        <v>0.02454685693523401</v>
       </c>
       <c r="T17">
-        <v>0.01373285266516439</v>
+        <v>0.02454685693523401</v>
       </c>
     </row>
   </sheetData>
